--- a/results/segiempat.xlsx
+++ b/results/segiempat.xlsx
@@ -14,7 +14,484 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="164">
+  <si>
+    <t>16519103</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 11, 3], [3, 1, 1], [4, 13, 3], [5, 5, 0], [6, 4, 0], [7, 3, 0], [8, 7, 0], [9, 6, 0], [10, 8, 1], [11, 19, 0], [12, 18, 0], [13, 9, 0], [14, 12, 0], [15, 10, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0]]</t>
+  </si>
+  <si>
+    <t>16519104</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 1, 0], [2, 5, 2], [3, 2, 0], [4, 4, 1], [5, 6, 0], [6, 3, 0], [7, 15, 3], [8, 16, 3], [9, 17, 3], [10, 7, 1], [11, 8, 0], [12, 18, 0], [13, 10, 0], [14, 9, 0], [15, 12, 0], [16, 11, 0], [17, 14, 0], [18, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519105</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 8, 0], [2, 12, 3], [3, 7, 1], [4, 9, 1], [5, 4, 0], [6, 2, 1], [7, 3, 0], [8, 1, 0], [9, 6, 0], [10, 5, 3], [11, 20, 0], [12, 11, 0], [13, 10, 0], [14, 13, 0], [15, 14, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0]]</t>
+  </si>
+  <si>
+    <t>16519107</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 1, 0], [2, 2, 0], [3, 3, 0], [4, 4, 0], [5, 5, 0], [6, 6, 0], [7, 7, 0], [8, 8, 0], [9, 9, 0], [10, 10, 0], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519108</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>File not found</t>
+  </si>
+  <si>
+    <t>16519109</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 10, 0], [2, 2, 0], [3, 1, 1], [4, 3, 0], [5, 5, 0], [6, 9, 0], [7, 4, 0], [8, 8, 1], [9, 6, 0], [10, 7, 0], [11, 12, 1], [12, 11, 1], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519111</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 5, 2], [2, 4, 0], [3, 2, 0], [4, 6, 0], [5, 7, 0], [6, 3, 0], [7, 1, 1], [8, 18, 3], [9, 8, 1], [10, 9, 2], [11, 20, 0], [12, 11, 0], [13, 10, 0], [14, 13, 0], [15, 12, 0], [16, 15, 0], [17, 14, 0], [18, 17, 0], [19, 16, 0], [20, 19, 0]]</t>
+  </si>
+  <si>
+    <t>16519112</t>
+  </si>
+  <si>
+    <t>16519113</t>
+  </si>
+  <si>
+    <t>16519114</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 13, 0], [2, 3, 0], [3, 10, 0], [4, 4, 0], [5, 6, 0], [6, 12, 0], [7, 2, 0], [8, 11, 1], [9, 1, 0], [10, 5, 0], [11, 9, 0], [12, 8, 2], [13, 14, 1], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 21, 0], [21, 7, 3], [22, 22, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519115</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 1, 0], [3, 4, 0], [4, 3, 0], [5, 5, 0], [6, 6, 0], [7, 7, 0], [8, 8, 0], [9, 9, 0], [10, 10, 0], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519116</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 10, 1], [3, 9, 0], [4, 1, 1], [5, 4, 0], [6, 3, 0], [7, 8, 0], [8, 7, 0], [9, 6, 0], [10, 5, 2], [11, 12, 0], [12, 13, 0], [13, 14, 0], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 21, 0], [21, 22, 0], [22, 11, 3]]</t>
+  </si>
+  <si>
+    <t>16519117</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 8, 2], [3, 4, 0], [4, 13, 3], [5, 6, 1], [6, 1, 2], [7, 5, 1], [8, 3, 1], [9, 18, 3], [10, 7, 1], [11, 19, 0], [12, 10, 0], [13, 9, 0], [14, 12, 0], [15, 11, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0]]</t>
+  </si>
+  <si>
+    <t>16519118</t>
+  </si>
+  <si>
+    <t>[[0, 0, 1], [1, 8, 4], [2, 2, 0], [3, 1, 1], [4, 5, 0], [5, 3, 0], [6, 4, 0], [7, 14, 3], [8, 15, 3], [9, 16, 3], [10, 6, 3], [11, 7, 0], [12, 17, 0], [13, 9, 0], [14, 10, 0], [15, 11, 0], [16, 12, 0], [17, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519119</t>
+  </si>
+  <si>
+    <t>16519120</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 7, 0], [2, 3, 0], [3, 11, 1], [4, 9, 1], [5, 13, 1], [6, 12, 1], [7, 2, 0], [8, 10, 1], [9, 1, 0], [10, 8, 0], [11, 6, 0], [12, 5, 2], [13, 14, 1], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 4, 3], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519121</t>
+  </si>
+  <si>
+    <t>16519122</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 7, 3], [3, 10, 0], [4, 3, 1], [5, 4, 1], [6, 5, 0], [7, 9, 0], [8, 8, 0], [9, 6, 0], [10, 11, 1], [11, 12, 0], [12, 1, 3], [13, 14, 0], [14, 13, 0], [15, 16, 0], [16, 15, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519123</t>
+  </si>
+  <si>
+    <t>16519125</t>
+  </si>
+  <si>
+    <t>[[0, 13, 3], [1, 8, 0], [2, 3, 0], [3, 10, 1], [4, 0, 1], [5, 11, 1], [6, 9, 1], [7, 2, 0], [8, 4, 1], [9, 1, 0], [10, 7, 0], [11, 6, 0], [12, 5, 2], [13, 12, 1], [14, 26, 0], [15, 14, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
+  </si>
+  <si>
+    <t>16519126</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 11, 3], [3, 4, 0], [4, 7, 1], [5, 1, 0], [6, 6, 1], [7, 5, 1], [8, 3, 2], [9, 18, 3], [10, 8, 1], [11, 19, 0], [12, 10, 0], [13, 9, 0], [14, 12, 0], [15, 13, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0]]</t>
+  </si>
+  <si>
+    <t>16519127</t>
+  </si>
+  <si>
+    <t>16519128</t>
+  </si>
+  <si>
+    <t>[[0, 12, 1], [1, 11, 0], [2, 3, 0], [3, 8, 1], [4, 5, 0], [5, 6, 0], [6, 7, 0], [7, 1, 0], [8, 9, 0], [9, 10, 1], [10, 2, 0], [11, 13, 0], [12, 4, 2], [13, 14, 1], [14, 0, 3], [15, 16, 0], [16, 15, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519129</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 5, 0], [2, 10, 3], [3, 4, 1], [4, 2, 0], [5, 1, 0], [6, 3, 0], [7, 6, 0], [8, 16, 3], [9, 17, 3], [10, 7, 1], [11, 18, 0], [12, 9, 0], [13, 8, 0], [14, 11, 0], [15, 12, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0]]</t>
+  </si>
+  <si>
+    <t>16519130</t>
+  </si>
+  <si>
+    <t>16519131</t>
+  </si>
+  <si>
+    <t>Something went wrong</t>
+  </si>
+  <si>
+    <t>16519132</t>
+  </si>
+  <si>
+    <t>16519133</t>
+  </si>
+  <si>
+    <t>16519134</t>
+  </si>
+  <si>
+    <t>16519135</t>
+  </si>
+  <si>
+    <t>[[0, 21, 1], [1, 20, 0], [2, 26, 0], [3, 16, 1], [4, 22, 0], [5, 7, 0], [6, 8, 0], [7, 15, 0], [8, 12, 0], [9, 13, 3], [10, 23, 1], [11, 24, 0], [12, 6, 2], [13, 27, 1], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 3], [18, 4, 4], [19, 5, 7], [20, 29, 0], [21, 28, 0], [22, 30, 0], [23, 9, 3], [24, 10, 3], [25, 11, 3], [26, 32, 0], [27, 31, 0], [28, 14, 4], [29, 41, 0], [30, 38, 0], [31, 17, 3], [32, 18, 3], [33, 19, 3], [34, 37, 0], [35, 36, 0], [36, 35, 0], [37, 34, 0], [38, 33, 0], [39, 25, 3], [40, 40, 0], [41, 39, 0]]</t>
+  </si>
+  <si>
+    <t>16519136</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 3, 0], [2, 6, 2], [3, 5, 0], [4, 4, 1], [5, 12, 3], [6, 2, 1], [7, 14, 3], [8, 15, 3], [9, 16, 3], [10, 1, 2], [11, 7, 0], [12, 17, 0], [13, 9, 0], [14, 8, 0], [15, 11, 0], [16, 10, 0], [17, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519137</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 10, 0], [2, 11, 1], [3, 4, 1], [4, 3, 0], [5, 12, 1], [6, 1, 0], [7, 9, 0], [8, 7, 1], [9, 8, 0], [10, 5, 1], [11, 6, 0], [12, 2, 2], [13, 13, 1], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519138</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 1, 0], [3, 4, 0], [4, 3, 0], [5, 5, 0], [6, 7, 0], [7, 6, 0], [8, 8, 0], [9, 9, 0], [10, 10, 0], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519139</t>
+  </si>
+  <si>
+    <t>16519140</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 6, 2], [3, 4, 0], [4, 3, 1], [5, 12, 3], [6, 1, 1], [7, 14, 3], [8, 15, 3], [9, 16, 3], [10, 5, 2], [11, 7, 0], [12, 17, 0], [13, 9, 0], [14, 8, 0], [15, 11, 0], [16, 10, 0], [17, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519141</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 1, 0], [2, 9, 0], [3, 5, 0], [4, 8, 1], [5, 7, 1], [6, 6, 2], [7, 2, 3], [8, 4, 1], [9, 3, 1], [10, 10, 1], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519142</t>
+  </si>
+  <si>
+    <t>[[0, 9, 3], [1, 7, 0], [2, 8, 1], [3, 6, 1], [4, 3, 0], [5, 2, 0], [6, 1, 0], [7, 0, 1], [8, 5, 0], [9, 18, 3], [10, 4, 3], [11, 19, 0], [12, 10, 0], [13, 11, 0], [14, 12, 0], [15, 13, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0]]</t>
+  </si>
+  <si>
+    <t>16519143</t>
+  </si>
+  <si>
+    <t>16519144</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 16, 0], [2, 10, 1], [3, 19, 1], [4, 13, 1], [5, 15, 1], [6, 2, 0], [7, 6, 0], [8, 4, 0], [9, 3, 1], [10, 8, 0], [11, 22, 0], [12, 21, 2], [13, 23, 1], [14, 24, 0], [15, 1, 3], [16, 25, 0], [17, 27, 0], [18, 26, 0], [19, 5, 3], [20, 28, 0], [21, 7, 3], [22, 29, 0], [23, 9, 3], [24, 32, 0], [25, 11, 3], [26, 12, 3], [27, 37, 0], [28, 14, 3], [29, 35, 0], [30, 34, 0], [31, 17, 3], [32, 18, 3], [33, 30, 0], [34, 20, 3], [35, 36, 0], [36, 33, 0], [37, 31, 0]]</t>
+  </si>
+  <si>
+    <t>16519145</t>
+  </si>
+  <si>
+    <t>16519146</t>
+  </si>
+  <si>
+    <t>16519147</t>
+  </si>
+  <si>
+    <t>[[0, 12, 2], [1, 22, 0], [2, 15, 1], [3, 5, 0], [4, 3, 0], [5, 6, 0], [6, 11, 0], [7, 18, 0], [8, 21, 1], [9, 4, 1], [10, 8, 0], [11, 23, 0], [12, 10, 1], [13, 24, 1], [14, 0, 3], [15, 1, 4], [16, 2, 5], [17, 28, 0], [18, 27, 0], [19, 26, 0], [20, 25, 0], [21, 7, 3], [22, 29, 0], [23, 9, 3], [24, 32, 0], [25, 31, 0], [26, 30, 0], [27, 13, 3], [28, 14, 3], [29, 33, 0], [30, 16, 3], [31, 17, 3], [32, 34, 0], [33, 19, 3], [34, 20, 3], [35, 38, 0], [36, 37, 0], [37, 36, 0], [38, 35, 0]]</t>
+  </si>
+  <si>
+    <t>16519148</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 4, 3], [2, 7, 2], [3, 6, 0], [4, 5, 1], [5, 8, 1], [6, 3, 0], [7, 2, 1], [8, 1, 0], [9, 9, 0], [10, 10, 0], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519149</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 3], [2, 8, 1], [3, 6, 0], [4, 14, 3], [5, 3, 0], [6, 1, 0], [7, 7, 0], [8, 5, 0], [9, 4, 0], [10, 9, 2], [11, 20, 0], [12, 11, 0], [13, 10, 0], [14, 13, 0], [15, 12, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0]]</t>
+  </si>
+  <si>
+    <t>16519150</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 10, 0], [2, 8, 1], [3, 9, 1], [4, 11, 1], [5, 14, 1], [6, 13, 1], [7, 12, 0], [8, 2, 0], [9, 1, 1], [10, 7, 0], [11, 6, 0], [12, 4, 2], [13, 15, 0], [14, 16, 0], [15, 17, 0], [16, 18, 0], [17, 3, 3], [18, 19, 0], [19, 5, 3], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519152</t>
+  </si>
+  <si>
+    <t>16519154</t>
+  </si>
+  <si>
+    <t>16519155</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 1, 0], [2, 12, 3], [3, 5, 1], [4, 3, 1], [5, 8, 0], [6, 2, 0], [7, 7, 0], [8, 6, 0], [9, 4, 1], [10, 9, 1], [11, 20, 0], [12, 11, 0], [13, 10, 0], [14, 13, 0], [15, 14, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0]]</t>
+  </si>
+  <si>
+    <t>16519156</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 9, 0], [2, 10, 1], [3, 8, 0], [4, 2, 1], [5, 3, 0], [6, 1, 0], [7, 7, 0], [8, 6, 0], [9, 5, 0], [10, 4, 2], [11, 12, 0], [12, 13, 0], [13, 14, 0], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 21, 0], [21, 22, 0], [22, 11, 3]]</t>
+  </si>
+  <si>
+    <t>16519157</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 11, 0], [2, 10, 1], [3, 5, 1], [4, 8, 1], [5, 7, 1], [6, 12, 1], [7, 6, 0], [8, 2, 0], [9, 13, 1], [10, 9, 0], [11, 4, 0], [12, 3, 2], [13, 14, 0], [14, 15, 0], [15, 1, 3], [16, 16, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519158</t>
+  </si>
+  <si>
+    <t>16519159</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 11, 0], [2, 10, 1], [3, 1, 1], [4, 3, 0], [5, 2, 0], [6, 4, 1], [7, 9, 0], [8, 5, 0], [9, 12, 0], [10, 7, 0], [11, 8, 0], [12, 13, 1], [13, 14, 0], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 6, 3], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519160</t>
+  </si>
+  <si>
+    <t>16519161</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 6, 0], [2, 5, 2], [3, 4, 0], [4, 3, 0], [5, 2, 1], [6, 8, 0], [7, 10, 0], [8, 9, 0], [9, 7, 1], [10, 11, 0], [11, 12, 0], [12, 1, 3], [13, 14, 0], [14, 13, 0], [15, 16, 0], [16, 15, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519162</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 8, 0], [2, 7, 1], [3, 9, 1], [4, 1, 1], [5, 13, 1], [6, 10, 1], [7, 3, 0], [8, 2, 0], [9, 14, 0], [10, 12, 0], [11, 11, 0], [12, 5, 2], [13, 15, 1], [14, 16, 0], [15, 17, 0], [16, 18, 0], [17, 19, 0], [18, 4, 3], [19, 21, 0], [20, 6, 3], [21, 20, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519163</t>
+  </si>
+  <si>
+    <t>16519164</t>
+  </si>
+  <si>
+    <t>16519165</t>
+  </si>
+  <si>
+    <t>16519166</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 11, 0], [2, 9, 1], [3, 10, 0], [4, 5, 0], [5, 13, 0], [6, 12, 1], [7, 14, 0], [8, 2, 0], [9, 3, 0], [10, 7, 0], [11, 15, 0], [12, 4, 2], [13, 16, 0], [14, 17, 0], [15, 1, 3], [16, 18, 0], [17, 20, 0], [18, 19, 0], [19, 22, 0], [20, 6, 3], [21, 21, 0], [22, 8, 3], [23, 26, 0], [24, 25, 0], [25, 24, 0], [26, 23, 0], [27, 30, 0], [28, 29, 0], [29, 28, 0], [30, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519167</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 8, 0], [2, 1, 1], [3, 9, 0], [4, 10, 2], [5, 4, 0], [6, 3, 0], [7, 7, 0], [8, 6, 0], [9, 5, 0], [10, 2, 3], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519168</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 12, 0], [2, 10, 1], [3, 3, 0], [4, 4, 0], [5, 2, 0], [6, 14, 0], [7, 7, 0], [8, 5, 0], [9, 13, 1], [10, 11, 1], [11, 8, 0], [12, 9, 1], [13, 15, 0], [14, 16, 0], [15, 1, 3], [16, 17, 0], [17, 19, 0], [18, 18, 0], [19, 21, 0], [20, 6, 3], [21, 20, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519169</t>
+  </si>
+  <si>
+    <t>16519170</t>
+  </si>
+  <si>
+    <t>16519171</t>
+  </si>
+  <si>
+    <t>16519172</t>
+  </si>
+  <si>
+    <t>16519173</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 14, 3], [2, 2, 0], [3, 4, 0], [4, 3, 1], [5, 11, 0], [6, 10, 0], [7, 6, 2], [8, 5, 1], [9, 9, 1], [10, 8, 2], [11, 7, 0], [12, 1, 0], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
+  </si>
+  <si>
+    <t>16519174</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 6, 2], [3, 5, 0], [4, 3, 1], [5, 12, 3], [6, 4, 1], [7, 14, 3], [8, 15, 3], [9, 16, 3], [10, 1, 2], [11, 7, 0], [12, 17, 0], [13, 9, 0], [14, 8, 0], [15, 11, 0], [16, 10, 0], [17, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519175</t>
+  </si>
+  <si>
+    <t>16519176</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 10, 0], [2, 2, 0], [3, 8, 2], [4, 14, 0], [5, 6, 0], [6, 12, 0], [7, 5, 0], [8, 4, 0], [9, 11, 1], [10, 13, 1], [11, 7, 0], [12, 9, 2], [13, 15, 2], [14, 16, 0], [15, 1, 3], [16, 17, 0], [17, 3, 3], [18, 18, 0], [19, 21, 0], [20, 20, 0], [21, 19, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519177</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 12, 3], [3, 1, 1], [4, 5, 0], [5, 3, 0], [6, 4, 1], [7, 8, 1], [8, 7, 1], [9, 6, 0], [10, 9, 2], [11, 20, 0], [12, 11, 0], [13, 10, 0], [14, 13, 0], [15, 14, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0]]</t>
+  </si>
+  <si>
+    <t>16519178</t>
+  </si>
+  <si>
+    <t>16519179</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 1, 0], [3, 7, 0], [4, 9, 1], [5, 8, 1], [6, 6, 2], [7, 3, 3], [8, 5, 1], [9, 4, 1], [10, 10, 1], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519180</t>
+  </si>
+  <si>
+    <t>16519181</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 14, 3], [2, 3, 0], [3, 1, 0], [4, 2, 0], [5, 6, 0], [6, 4, 0], [7, 5, 2], [8, 10, 0], [9, 11, 1], [10, 7, 1], [11, 8, 1], [12, 9, 2], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
+  </si>
+  <si>
+    <t>16519182</t>
+  </si>
+  <si>
+    <t>[[0, 13, 1], [1, 15, 1], [2, 14, 0], [3, 6, 3], [4, 16, 0], [5, 17, 0], [6, 18, 0], [7, 12, 3], [8, 5, 0], [9, 11, 1], [10, 9, 0], [11, 8, 1], [12, 7, 2], [13, 19, 0], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 6], [18, 4, 4], [19, 21, 0], [20, 24, 0], [21, 23, 0], [22, 22, 0], [23, 20, 0], [24, 10, 4], [25, 25, 0], [26, 26, 0], [27, 33, 0], [28, 32, 0], [29, 31, 0], [30, 30, 0], [31, 29, 0], [32, 28, 0], [33, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519183</t>
+  </si>
+  <si>
+    <t>16519184</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 14, 3], [2, 4, 0], [3, 3, 0], [4, 1, 1], [5, 11, 0], [6, 10, 1], [7, 2, 0], [8, 5, 0], [9, 7, 1], [10, 8, 1], [11, 9, 0], [12, 6, 1], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
+  </si>
+  <si>
+    <t>16519185</t>
+  </si>
+  <si>
+    <t>16519186</t>
+  </si>
+  <si>
+    <t>16519187</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 10, 3], [3, 3, 1], [4, 6, 0], [5, 4, 0], [6, 5, 0], [7, 1, 1], [8, 16, 3], [9, 17, 3], [10, 7, 2], [11, 18, 0], [12, 9, 0], [13, 8, 0], [14, 11, 0], [15, 12, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0]]</t>
+  </si>
+  <si>
+    <t>16519188</t>
+  </si>
+  <si>
+    <t>16519189</t>
+  </si>
+  <si>
+    <t>16519190</t>
+  </si>
+  <si>
+    <t>16519191</t>
+  </si>
+  <si>
+    <t>16519192</t>
+  </si>
+  <si>
+    <t>[[0, 2, 2], [1, 9, 0], [2, 3, 0], [3, 13, 0], [4, 4, 0], [5, 11, 0], [6, 12, 0], [7, 14, 0], [8, 15, 0], [9, 1, 0], [10, 5, 0], [11, 10, 0], [12, 6, 3], [13, 17, 1], [14, 0, 3], [15, 19, 0], [16, 18, 0], [17, 21, 0], [18, 20, 0], [19, 23, 0], [20, 22, 0], [21, 7, 3], [22, 8, 3], [23, 24, 0], [24, 26, 0], [25, 25, 0], [26, 28, 0], [27, 27, 0], [28, 30, 0], [29, 29, 0], [30, 16, 3], [31, 31, 0]]</t>
+  </si>
+  <si>
+    <t>16519193</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 11, 3], [3, 1, 1], [4, 13, 3], [5, 4, 0], [6, 5, 0], [7, 3, 0], [8, 7, 0], [9, 6, 0], [10, 8, 1], [11, 19, 0], [12, 18, 0], [13, 9, 0], [14, 12, 0], [15, 10, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0]]</t>
+  </si>
+  <si>
+    <t>16519194</t>
+  </si>
+  <si>
+    <t>[[0, 16, 1], [1, 15, 0], [2, 14, 0], [3, 7, 1], [4, 19, 0], [5, 11, 0], [6, 12, 0], [7, 10, 0], [8, 13, 0], [9, 9, 0], [10, 18, 0], [11, 17, 1], [12, 6, 0], [13, 20, 0], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 4], [18, 4, 5], [19, 5, 4], [20, 21, 0], [21, 24, 0], [22, 8, 3], [23, 25, 0], [24, 26, 0], [25, 23, 0], [26, 22, 0], [27, 34, 0], [28, 33, 0], [29, 32, 0], [30, 31, 0], [31, 30, 0], [32, 29, 0], [33, 28, 0], [34, 27, 0]]</t>
+  </si>
+  <si>
+    <t>16519195</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 2, 0], [2, 1, 0], [3, 10, 0], [4, 3, 0], [5, 5, 0], [6, 7, 1], [7, 6, 0], [8, 8, 0], [9, 9, 0], [10, 4, 2], [11, 12, 0], [12, 13, 0], [13, 14, 0], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 21, 0], [21, 22, 0], [22, 11, 2]]</t>
+  </si>
+  <si>
+    <t>16519196</t>
+  </si>
+  <si>
+    <t>16519197</t>
+  </si>
+  <si>
+    <t>16519198</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 8, 4], [2, 3, 0], [3, 1, 1], [4, 4, 0], [5, 5, 0], [6, 2, 0], [7, 14, 3], [8, 15, 3], [9, 16, 3], [10, 6, 2], [11, 7, 0], [12, 17, 0], [13, 9, 0], [14, 10, 0], [15, 11, 0], [16, 12, 0], [17, 13, 0]]</t>
+  </si>
+  <si>
+    <t>16519199</t>
+  </si>
+  <si>
+    <t>16519200</t>
+  </si>
+  <si>
+    <t>16519201</t>
+  </si>
+  <si>
+    <t>16519202</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 15, 0], [2, 13, 1], [3, 14, 1], [4, 4, 0], [5, 2, 0], [6, 6, 1], [7, 9, 0], [8, 7, 0], [9, 5, 0], [10, 12, 0], [11, 11, 0], [12, 16, 2], [13, 17, 1], [14, 18, 0], [15, 1, 3], [16, 19, 0], [17, 3, 3], [18, 20, 0], [19, 23, 0], [20, 22, 0], [21, 21, 0], [22, 8, 3], [23, 27, 0], [24, 10, 3], [25, 25, 0], [26, 24, 0], [27, 31, 0], [28, 30, 0], [29, 29, 0], [30, 28, 0], [31, 26, 0]]</t>
+  </si>
+  <si>
+    <t>16519203</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 4, 0], [2, 3, 2], [3, 5, 1], [4, 1, 1], [5, 9, 0], [6, 2, 0], [7, 8, 2], [8, 7, 1], [9, 6, 1], [10, 10, 2], [11, 11, 0], [12, 12, 0], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0]]</t>
+  </si>
+  <si>
+    <t>16519204</t>
+  </si>
+  <si>
+    <t>[[0, 9, 1], [1, 11, 2], [2, 14, 0], [3, 5, 2], [4, 4, 0], [5, 6, 0], [6, 7, 0], [7, 3, 0], [8, 8, 0], [9, 13, 2], [10, 12, 1], [11, 16, 1], [12, 10, 3], [13, 18, 2], [14, 0, 3], [15, 1, 4], [16, 2, 3], [17, 20, 0], [18, 19, 0], [19, 24, 0], [20, 23, 0], [21, 22, 0], [22, 21, 0], [23, 28, 0], [24, 27, 0], [25, 26, 0], [26, 25, 0], [27, 32, 0], [28, 31, 0], [29, 15, 4], [30, 29, 0], [31, 17, 3], [32, 30, 0]]</t>
+  </si>
+  <si>
+    <t>18018006</t>
+  </si>
+  <si>
+    <t>18018032</t>
+  </si>
+  <si>
+    <t>18318025</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0], [1, 12, 0], [2, 11, 1], [3, 5, 2], [4, 6, 0], [5, 8, 0], [6, 10, 0], [7, 3, 0], [8, 9, 1], [9, 1, 0], [10, 2, 1], [11, 7, 0], [12, 4, 2], [13, 13, 1], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
+  </si>
   <si>
     <t>NIM</t>
   </si>
@@ -29,486 +506,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>16519103</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 3], [2, 2, 0], [3, 4, 1], [4, 1, 1], [5, 7, 1], [6, 6, 1], [7, 3, 2], [8, 5, 1], [9, 18, 4], [10, 19, 5], [11, 20, 3], [12, 21, 5], [13, 8, 0], [14, 9, 0], [15, 22, 0], [16, 11, 0], [17, 12, 0], [18, 13, 0], [19, 14, 0], [20, 15, 0], [21, 16, 0], [22, 17, 0]]</t>
-  </si>
-  <si>
-    <t>16519104</t>
-  </si>
-  <si>
-    <t>[[0, 8, 3], [1, 6, 0], [2, 10, 4], [3, 3, 1], [4, 0, 1], [5, 4, 0], [6, 1, 0], [7, 2, 1], [8, 16, 4], [9, 17, 4], [10, 18, 5], [11, 19, 3], [12, 5, 0], [13, 7, 0], [14, 20, 0], [15, 9, 0], [16, 21, 0], [17, 11, 0], [18, 12, 0], [19, 13, 0], [20, 14, 0], [21, 15, 0]]</t>
-  </si>
-  <si>
-    <t>16519105</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 11, 3], [2, 8, 0], [3, 2, 0], [4, 7, 1], [5, 6, 1], [6, 1, 1], [7, 5, 1], [8, 4, 1], [9, 3, 1], [10, 20, 5], [11, 21, 3], [12, 22, 5], [13, 9, 2], [14, 10, 0], [15, 23, 0], [16, 12, 0], [17, 13, 0], [18, 14, 0], [19, 15, 0], [20, 16, 0], [21, 17, 0], [22, 18, 0], [23, 19, 0]]</t>
-  </si>
-  <si>
-    <t>16519107</t>
-  </si>
-  <si>
-    <t>[[0, 11, 3], [1, 9, 0], [2, 8, 1], [3, 6, 1], [4, 15, 4], [5, 2, 1], [6, 1, 0], [7, 5, 2], [8, 0, 1], [9, 4, 1], [10, 3, 1], [11, 22, 3], [12, 7, 2], [13, 10, 1], [14, 23, 0], [15, 12, 0], [16, 24, 0], [17, 14, 0], [18, 13, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519108</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>File not found</t>
-  </si>
-  <si>
-    <t>16519109</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 0], [2, 2, 0], [3, 1, 1], [4, 3, 0], [5, 5, 0], [6, 9, 0], [7, 4, 0], [8, 8, 1], [9, 6, 0], [10, 7, 0], [11, 12, 1], [12, 11, 1], [13, 13, 0], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519111</t>
-  </si>
-  <si>
-    <t>[[0, 10, 3], [1, 11, 3], [2, 6, 1], [3, 5, 0], [4, 8, 0], [5, 7, 1], [6, 4, 1], [7, 3, 0], [8, 0, 1], [9, 1, 0], [10, 2, 1], [11, 21, 3], [12, 22, 5], [13, 9, 1], [14, 20, 0], [15, 23, 0], [16, 12, 0], [17, 13, 0], [18, 14, 0], [19, 15, 0], [20, 16, 0], [21, 17, 0], [22, 18, 0], [23, 19, 0]]</t>
-  </si>
-  <si>
-    <t>16519112</t>
-  </si>
-  <si>
-    <t>16519113</t>
-  </si>
-  <si>
-    <t>16519114</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 13, 0], [2, 3, 0], [3, 10, 0], [4, 4, 0], [5, 6, 0], [6, 12, 0], [7, 2, 0], [8, 11, 1], [9, 1, 0], [10, 5, 0], [11, 9, 0], [12, 8, 2], [13, 14, 1], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 21, 0], [21, 7, 3], [22, 22, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519115</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 12, 3], [2, 7, 1], [3, 6, 1], [4, 4, 0], [5, 3, 1], [6, 2, 0], [7, 5, 2], [8, 1, 1], [9, 9, 1], [10, 8, 2], [11, 22, 3], [12, 23, 5], [13, 10, 1], [14, 11, 0], [15, 24, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519116</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 13, 3], [2, 4, 1], [3, 5, 1], [4, 7, 1], [5, 10, 0], [6, 9, 0], [7, 3, 0], [8, 8, 1], [9, 1, 0], [10, 2, 1], [11, 6, 0], [12, 24, 5], [13, 11, 1], [14, 12, 0], [15, 25, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0], [20, 18, 0], [21, 19, 0], [22, 20, 0], [23, 21, 0], [24, 22, 0], [25, 23, 0]]</t>
-  </si>
-  <si>
-    <t>16519117</t>
-  </si>
-  <si>
-    <t>[[0, 9, 3], [1, 10, 3], [2, 2, 0], [3, 1, 1], [4, 0, 1], [5, 3, 0], [6, 6, 0], [7, 5, 1], [8, 4, 0], [9, 18, 4], [10, 8, 2], [11, 20, 3], [12, 7, 1], [13, 22, 4], [14, 19, 0], [15, 21, 0], [16, 11, 0], [17, 12, 0], [18, 13, 0], [19, 14, 0], [20, 15, 0], [21, 16, 0], [22, 17, 0]]</t>
-  </si>
-  <si>
-    <t>16519118</t>
-  </si>
-  <si>
-    <t>[[0, 7, 3], [1, 8, 3], [2, 0, 2], [3, 1, 1], [4, 11, 4], [5, 5, 1], [6, 2, 1], [7, 4, 0], [8, 15, 4], [9, 16, 4], [10, 3, 2], [11, 18, 3], [12, 19, 5], [13, 6, 2], [14, 17, 0], [15, 14, 0], [16, 20, 0], [17, 10, 0], [18, 9, 0], [19, 12, 0], [20, 13, 0]]</t>
-  </si>
-  <si>
-    <t>16519119</t>
-  </si>
-  <si>
-    <t>16519120</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 7, 0], [2, 3, 0], [3, 11, 1], [4, 9, 1], [5, 13, 1], [6, 12, 1], [7, 2, 0], [8, 10, 1], [9, 1, 0], [10, 8, 0], [11, 6, 0], [12, 5, 2], [13, 14, 1], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 4, 3], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519121</t>
-  </si>
-  <si>
-    <t>16519122</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 13, 3], [2, 2, 0], [3, 7, 0], [4, 1, 1], [5, 10, 0], [6, 9, 1], [7, 5, 0], [8, 8, 1], [9, 3, 0], [10, 4, 1], [11, 6, 0], [12, 24, 5], [13, 11, 0], [14, 12, 0], [15, 25, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0], [20, 18, 0], [21, 19, 0], [22, 20, 0], [23, 21, 0], [24, 22, 0], [25, 23, 0]]</t>
-  </si>
-  <si>
-    <t>16519123</t>
-  </si>
-  <si>
-    <t>16519125</t>
-  </si>
-  <si>
-    <t>[[0, 13, 3], [1, 8, 0], [2, 3, 0], [3, 10, 1], [4, 0, 1], [5, 11, 1], [6, 9, 1], [7, 2, 0], [8, 4, 1], [9, 1, 0], [10, 7, 0], [11, 6, 0], [12, 5, 2], [13, 12, 1], [14, 26, 0], [15, 14, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
-  </si>
-  <si>
-    <t>16519126</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 3], [2, 11, 4], [3, 6, 0], [4, 1, 1], [5, 2, 0], [6, 7, 0], [7, 5, 1], [8, 4, 0], [9, 18, 4], [10, 19, 5], [11, 20, 3], [12, 3, 0], [13, 8, 0], [14, 9, 0], [15, 22, 0], [16, 21, 0], [17, 12, 0], [18, 13, 0], [19, 14, 0], [20, 15, 0], [21, 16, 0], [22, 17, 0]]</t>
-  </si>
-  <si>
-    <t>16519127</t>
-  </si>
-  <si>
-    <t>16519128</t>
-  </si>
-  <si>
-    <t>[[0, 12, 1], [1, 11, 0], [2, 3, 0], [3, 8, 1], [4, 5, 0], [5, 6, 0], [6, 7, 0], [7, 1, 0], [8, 9, 0], [9, 10, 1], [10, 2, 0], [11, 13, 0], [12, 4, 2], [13, 14, 1], [14, 0, 3], [15, 16, 0], [16, 15, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519129</t>
-  </si>
-  <si>
-    <t>[[0, 8, 3], [1, 6, 0], [2, 5, 0], [3, 3, 1], [4, 4, 1], [5, 0, 1], [6, 14, 4], [7, 2, 2], [8, 16, 4], [9, 17, 4], [10, 18, 5], [11, 1, 0], [12, 20, 5], [13, 7, 0], [14, 19, 0], [15, 9, 0], [16, 21, 0], [17, 11, 0], [18, 10, 0], [19, 13, 0], [20, 12, 0], [21, 15, 0]]</t>
-  </si>
-  <si>
-    <t>16519130</t>
-  </si>
-  <si>
-    <t>16519131</t>
-  </si>
-  <si>
-    <t>Something went wrong</t>
-  </si>
-  <si>
-    <t>16519132</t>
-  </si>
-  <si>
-    <t>16519133</t>
-  </si>
-  <si>
-    <t>16519134</t>
-  </si>
-  <si>
-    <t>16519135</t>
-  </si>
-  <si>
-    <t>[[0, 21, 1], [1, 20, 0], [2, 26, 0], [3, 16, 1], [4, 22, 0], [5, 7, 0], [6, 8, 0], [7, 15, 0], [8, 12, 0], [9, 13, 3], [10, 23, 1], [11, 24, 0], [12, 6, 2], [13, 27, 1], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 3], [18, 4, 4], [19, 5, 7], [20, 29, 0], [21, 28, 0], [22, 30, 0], [23, 9, 3], [24, 10, 3], [25, 11, 3], [26, 32, 0], [27, 31, 0], [28, 14, 4], [29, 41, 0], [30, 38, 0], [31, 17, 3], [32, 18, 3], [33, 19, 3], [34, 37, 0], [35, 36, 0], [36, 35, 0], [37, 34, 0], [38, 33, 0], [39, 25, 3], [40, 40, 0], [41, 39, 0]]</t>
-  </si>
-  <si>
-    <t>16519136</t>
-  </si>
-  <si>
-    <t>[[0, 7, 3], [1, 8, 3], [2, 0, 1], [3, 2, 0], [4, 5, 0], [5, 4, 0], [6, 3, 0], [7, 14, 5], [8, 15, 4], [9, 16, 4], [10, 17, 5], [11, 18, 3], [12, 1, 0], [13, 6, 1], [14, 19, 0], [15, 20, 0], [16, 9, 0], [17, 10, 0], [18, 11, 0], [19, 12, 0], [20, 13, 0]]</t>
-  </si>
-  <si>
-    <t>16519137</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 0], [2, 11, 1], [3, 4, 1], [4, 3, 0], [5, 12, 1], [6, 1, 0], [7, 9, 0], [8, 7, 1], [9, 8, 0], [10, 5, 1], [11, 6, 0], [12, 2, 2], [13, 13, 1], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519138</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 12, 3], [2, 5, 1], [3, 7, 1], [4, 4, 0], [5, 3, 1], [6, 2, 0], [7, 6, 2], [8, 1, 1], [9, 9, 1], [10, 8, 2], [11, 22, 3], [12, 23, 5], [13, 10, 1], [14, 11, 0], [15, 24, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519139</t>
-  </si>
-  <si>
-    <t>16519140</t>
-  </si>
-  <si>
-    <t>[[0, 7, 3], [1, 8, 3], [2, 0, 1], [3, 1, 0], [4, 4, 0], [5, 3, 0], [6, 2, 0], [7, 14, 5], [8, 15, 4], [9, 16, 4], [10, 17, 5], [11, 18, 3], [12, 5, 0], [13, 6, 1], [14, 19, 0], [15, 20, 0], [16, 9, 0], [17, 10, 0], [18, 11, 0], [19, 12, 0], [20, 13, 0]]</t>
-  </si>
-  <si>
-    <t>16519141</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 9, 0], [2, 13, 4], [3, 6, 1], [4, 3, 0], [5, 1, 0], [6, 5, 0], [7, 4, 1], [8, 8, 0], [9, 20, 4], [10, 7, 1], [11, 22, 3], [12, 2, 1], [13, 10, 0], [14, 11, 0], [15, 24, 0], [16, 23, 0], [17, 12, 0], [18, 15, 0], [19, 14, 0], [20, 17, 0], [21, 16, 0], [22, 19, 0], [23, 18, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519142</t>
-  </si>
-  <si>
-    <t>[[0, 9, 3], [1, 10, 3], [2, 7, 0], [3, 4, 0], [4, 6, 1], [5, 2, 1], [6, 15, 4], [7, 1, 0], [8, 17, 4], [9, 18, 4], [10, 0, 3], [11, 5, 0], [12, 3, 2], [13, 8, 2], [14, 20, 0], [15, 19, 0], [16, 21, 0], [17, 12, 0], [18, 11, 0], [19, 22, 0], [20, 13, 0], [21, 16, 0], [22, 14, 0]]</t>
-  </si>
-  <si>
-    <t>16519143</t>
-  </si>
-  <si>
-    <t>16519144</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 16, 0], [2, 10, 1], [3, 19, 1], [4, 13, 1], [5, 15, 1], [6, 2, 0], [7, 6, 0], [8, 4, 0], [9, 3, 1], [10, 8, 0], [11, 22, 0], [12, 21, 2], [13, 23, 1], [14, 24, 0], [15, 1, 3], [16, 25, 0], [17, 27, 0], [18, 26, 0], [19, 5, 3], [20, 28, 0], [21, 7, 3], [22, 29, 0], [23, 9, 3], [24, 32, 0], [25, 11, 3], [26, 12, 3], [27, 37, 0], [28, 14, 3], [29, 35, 0], [30, 34, 0], [31, 17, 3], [32, 18, 3], [33, 30, 0], [34, 20, 3], [35, 36, 0], [36, 33, 0], [37, 31, 0]]</t>
-  </si>
-  <si>
-    <t>16519145</t>
-  </si>
-  <si>
-    <t>16519146</t>
-  </si>
-  <si>
-    <t>16519147</t>
-  </si>
-  <si>
-    <t>[[0, 12, 2], [1, 22, 0], [2, 15, 1], [3, 5, 0], [4, 3, 0], [5, 6, 0], [6, 11, 0], [7, 18, 0], [8, 21, 1], [9, 4, 1], [10, 8, 0], [11, 23, 0], [12, 10, 1], [13, 24, 1], [14, 0, 3], [15, 1, 4], [16, 2, 5], [17, 28, 0], [18, 27, 0], [19, 26, 0], [20, 25, 0], [21, 7, 3], [22, 29, 0], [23, 9, 3], [24, 32, 0], [25, 31, 0], [26, 30, 0], [27, 13, 3], [28, 14, 3], [29, 33, 0], [30, 16, 3], [31, 17, 3], [32, 34, 0], [33, 19, 3], [34, 20, 3], [35, 38, 0], [36, 37, 0], [37, 36, 0], [38, 35, 0]]</t>
-  </si>
-  <si>
-    <t>16519148</t>
-  </si>
-  <si>
-    <t>[[0, 11, 3], [1, 12, 3], [2, 5, 0], [3, 4, 1], [4, 0, 1], [5, 8, 0], [6, 7, 1], [7, 3, 0], [8, 6, 0], [9, 1, 1], [10, 2, 1], [11, 9, 0], [12, 23, 5], [13, 10, 1], [14, 22, 0], [15, 24, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519149</t>
-  </si>
-  <si>
-    <t>[[0, 10, 3], [1, 7, 0], [2, 6, 0], [3, 2, 1], [4, 5, 1], [5, 3, 1], [6, 16, 4], [7, 1, 0], [8, 18, 4], [9, 8, 0], [10, 0, 2], [11, 4, 0], [12, 22, 5], [13, 9, 1], [14, 21, 0], [15, 20, 0], [16, 23, 0], [17, 13, 0], [18, 12, 0], [19, 11, 0], [20, 14, 0], [21, 17, 0], [22, 15, 0], [23, 19, 0]]</t>
-  </si>
-  <si>
-    <t>16519150</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 0], [2, 8, 1], [3, 9, 1], [4, 11, 1], [5, 14, 1], [6, 13, 1], [7, 12, 0], [8, 2, 0], [9, 1, 1], [10, 7, 0], [11, 6, 0], [12, 4, 2], [13, 15, 0], [14, 16, 0], [15, 17, 0], [16, 18, 0], [17, 3, 3], [18, 19, 0], [19, 5, 3], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519152</t>
-  </si>
-  <si>
-    <t>16519154</t>
-  </si>
-  <si>
-    <t>16519155</t>
-  </si>
-  <si>
-    <t>[[0, 10, 3], [1, 6, 0], [2, 12, 4], [3, 2, 1], [4, 3, 0], [5, 1, 0], [6, 0, 1], [7, 5, 0], [8, 18, 4], [9, 8, 1], [10, 4, 1], [11, 7, 0], [12, 22, 5], [13, 9, 0], [14, 21, 0], [15, 20, 0], [16, 23, 0], [17, 13, 0], [18, 11, 0], [19, 15, 0], [20, 14, 0], [21, 17, 0], [22, 16, 0], [23, 19, 0]]</t>
-  </si>
-  <si>
-    <t>16519156</t>
-  </si>
-  <si>
-    <t>[[0, 12, 3], [1, 13, 3], [2, 2, 0], [3, 4, 1], [4, 6, 1], [5, 9, 0], [6, 8, 0], [7, 1, 0], [8, 7, 1], [9, 10, 0], [10, 0, 2], [11, 5, 0], [12, 3, 2], [13, 11, 1], [14, 24, 0], [15, 25, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0], [20, 18, 0], [21, 19, 0], [22, 20, 0], [23, 21, 0], [24, 22, 0], [25, 23, 0]]</t>
-  </si>
-  <si>
-    <t>16519157</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 11, 0], [2, 10, 1], [3, 5, 1], [4, 8, 1], [5, 7, 1], [6, 12, 1], [7, 6, 0], [8, 2, 0], [9, 13, 1], [10, 9, 0], [11, 4, 0], [12, 3, 2], [13, 14, 0], [14, 15, 0], [15, 1, 3], [16, 16, 0], [17, 18, 0], [18, 17, 0], [19, 20, 0], [20, 19, 0], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519158</t>
-  </si>
-  <si>
-    <t>16519159</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 11, 0], [2, 10, 1], [3, 1, 1], [4, 3, 0], [5, 2, 0], [6, 4, 1], [7, 9, 0], [8, 5, 0], [9, 12, 0], [10, 7, 0], [11, 8, 0], [12, 13, 1], [13, 14, 0], [14, 15, 0], [15, 16, 0], [16, 17, 0], [17, 18, 0], [18, 19, 0], [19, 20, 0], [20, 6, 3], [21, 22, 0], [22, 21, 0], [23, 24, 0], [24, 23, 0], [25, 26, 0], [26, 25, 0], [27, 28, 0], [28, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519160</t>
-  </si>
-  <si>
-    <t>16519161</t>
-  </si>
-  <si>
-    <t>[[0, 12, 3], [1, 10, 0], [2, 9, 1], [3, 5, 1], [4, 0, 1], [5, 6, 0], [6, 4, 0], [7, 8, 0], [8, 2, 0], [9, 1, 1], [10, 7, 1], [11, 3, 0], [12, 24, 5], [13, 11, 1], [14, 25, 0], [15, 13, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0], [20, 18, 0], [21, 19, 0], [22, 20, 0], [23, 21, 0], [24, 22, 0], [25, 23, 0]]</t>
-  </si>
-  <si>
-    <t>16519162</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 8, 0], [2, 7, 1], [3, 9, 1], [4, 1, 1], [5, 13, 1], [6, 10, 1], [7, 3, 0], [8, 2, 0], [9, 14, 0], [10, 12, 0], [11, 11, 0], [12, 5, 2], [13, 15, 1], [14, 16, 0], [15, 17, 0], [16, 18, 0], [17, 19, 0], [18, 4, 3], [19, 21, 0], [20, 6, 3], [21, 20, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519163</t>
-  </si>
-  <si>
-    <t>16519164</t>
-  </si>
-  <si>
-    <t>16519165</t>
-  </si>
-  <si>
-    <t>16519166</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 11, 0], [2, 9, 1], [3, 10, 0], [4, 5, 0], [5, 13, 0], [6, 12, 1], [7, 14, 0], [8, 2, 0], [9, 3, 0], [10, 7, 0], [11, 15, 0], [12, 4, 2], [13, 16, 0], [14, 17, 0], [15, 1, 3], [16, 18, 0], [17, 20, 0], [18, 19, 0], [19, 22, 0], [20, 6, 3], [21, 21, 0], [22, 8, 3], [23, 26, 0], [24, 25, 0], [25, 24, 0], [26, 23, 0], [27, 30, 0], [28, 29, 0], [29, 28, 0], [30, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519167</t>
-  </si>
-  <si>
-    <t>[[0, 11, 3], [1, 4, 0], [2, 0, 1], [3, 2, 2], [4, 9, 0], [5, 8, 0], [6, 7, 1], [7, 3, 0], [8, 6, 1], [9, 5, 1], [10, 1, 1], [11, 22, 3], [12, 23, 5], [13, 10, 1], [14, 24, 0], [15, 12, 0], [16, 13, 0], [17, 14, 0], [18, 15, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519168</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 12, 0], [2, 10, 1], [3, 3, 0], [4, 4, 0], [5, 2, 0], [6, 14, 0], [7, 7, 0], [8, 5, 0], [9, 13, 1], [10, 11, 1], [11, 8, 0], [12, 9, 1], [13, 15, 0], [14, 16, 0], [15, 1, 3], [16, 17, 0], [17, 19, 0], [18, 18, 0], [19, 21, 0], [20, 6, 3], [21, 20, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519169</t>
-  </si>
-  <si>
-    <t>16519170</t>
-  </si>
-  <si>
-    <t>16519171</t>
-  </si>
-  <si>
-    <t>16519172</t>
-  </si>
-  <si>
-    <t>[[0, 0, 2], [1, 2, 3], [2, 3, 4], [3, 4, 6], [4, 5, 4], [5, 6, 4], [6, 7, 4], [7, 8, 5], [8, 9, 4], [9, 10, 4], [10, 11, 5], [11, 12, 3], [12, 13, 5], [13, 14, 4], [14, 1, 0]]</t>
-  </si>
-  <si>
-    <t>16519173</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 14, 3], [2, 2, 0], [3, 4, 0], [4, 3, 1], [5, 11, 0], [6, 10, 0], [7, 6, 2], [8, 5, 1], [9, 9, 1], [10, 8, 2], [11, 7, 0], [12, 1, 0], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
-  </si>
-  <si>
-    <t>16519174</t>
-  </si>
-  <si>
-    <t>[[0, 7, 3], [1, 8, 3], [2, 0, 1], [3, 4, 0], [4, 5, 0], [5, 3, 0], [6, 2, 0], [7, 14, 5], [8, 15, 4], [9, 16, 4], [10, 17, 5], [11, 18, 3], [12, 1, 0], [13, 6, 1], [14, 19, 0], [15, 20, 0], [16, 9, 0], [17, 10, 0], [18, 11, 0], [19, 12, 0], [20, 13, 0]]</t>
-  </si>
-  <si>
-    <t>16519175</t>
-  </si>
-  <si>
-    <t>16519176</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 0], [2, 2, 0], [3, 8, 2], [4, 14, 0], [5, 6, 0], [6, 12, 0], [7, 5, 0], [8, 4, 0], [9, 11, 1], [10, 13, 1], [11, 7, 0], [12, 9, 2], [13, 15, 2], [14, 16, 0], [15, 1, 3], [16, 17, 0], [17, 3, 3], [18, 18, 0], [19, 21, 0], [20, 20, 0], [21, 19, 0], [22, 22, 0], [23, 25, 0], [24, 24, 0], [25, 23, 0], [26, 26, 0], [27, 29, 0], [28, 28, 0], [29, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519177</t>
-  </si>
-  <si>
-    <t>[[0, 10, 3], [1, 11, 3], [2, 5, 1], [3, 4, 0], [4, 7, 0], [5, 6, 1], [6, 3, 1], [7, 1, 0], [8, 2, 0], [9, 8, 0], [10, 0, 2], [11, 21, 3], [12, 22, 5], [13, 9, 1], [14, 20, 0], [15, 23, 0], [16, 12, 0], [17, 13, 0], [18, 14, 0], [19, 15, 0], [20, 16, 0], [21, 17, 0], [22, 18, 0], [23, 19, 0]]</t>
-  </si>
-  <si>
-    <t>16519178</t>
-  </si>
-  <si>
-    <t>16519179</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 1, 0], [2, 13, 4], [3, 6, 1], [4, 4, 0], [5, 2, 0], [6, 7, 0], [7, 5, 1], [8, 9, 0], [9, 20, 4], [10, 8, 1], [11, 22, 3], [12, 3, 1], [13, 10, 0], [14, 11, 0], [15, 24, 0], [16, 23, 0], [17, 12, 0], [18, 15, 0], [19, 14, 0], [20, 17, 0], [21, 16, 0], [22, 19, 0], [23, 18, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519180</t>
-  </si>
-  <si>
-    <t>16519181</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 14, 3], [2, 3, 0], [3, 1, 0], [4, 2, 0], [5, 6, 0], [6, 4, 0], [7, 5, 2], [8, 10, 0], [9, 11, 1], [10, 7, 1], [11, 8, 1], [12, 9, 2], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
-  </si>
-  <si>
-    <t>16519182</t>
-  </si>
-  <si>
-    <t>[[0, 13, 1], [1, 15, 1], [2, 14, 0], [3, 6, 3], [4, 16, 0], [5, 17, 0], [6, 18, 0], [7, 12, 3], [8, 5, 0], [9, 11, 1], [10, 9, 0], [11, 8, 1], [12, 7, 2], [13, 19, 0], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 6], [18, 4, 4], [19, 21, 0], [20, 24, 0], [21, 23, 0], [22, 22, 0], [23, 20, 0], [24, 10, 4], [25, 25, 0], [26, 26, 0], [27, 33, 0], [28, 32, 0], [29, 31, 0], [30, 30, 0], [31, 29, 0], [32, 28, 0], [33, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519183</t>
-  </si>
-  <si>
-    <t>16519184</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 14, 3], [2, 4, 0], [3, 3, 0], [4, 1, 1], [5, 11, 0], [6, 10, 1], [7, 2, 0], [8, 5, 0], [9, 7, 1], [10, 8, 1], [11, 9, 0], [12, 6, 1], [13, 12, 1], [14, 13, 0], [15, 26, 0], [16, 15, 0], [17, 16, 0], [18, 17, 0], [19, 18, 0], [20, 19, 0], [21, 20, 0], [22, 21, 0], [23, 22, 0], [24, 23, 0], [25, 24, 0], [26, 25, 0]]</t>
-  </si>
-  <si>
-    <t>16519185</t>
-  </si>
-  <si>
-    <t>16519186</t>
-  </si>
-  <si>
-    <t>16519187</t>
-  </si>
-  <si>
-    <t>[[0, 8, 3], [1, 9, 3], [2, 2, 0], [3, 3, 1], [4, 0, 1], [5, 13, 4], [6, 6, 1], [7, 5, 0], [8, 16, 4], [9, 17, 4], [10, 4, 2], [11, 19, 3], [12, 1, 1], [13, 7, 1], [14, 18, 0], [15, 20, 0], [16, 10, 0], [17, 21, 0], [18, 12, 0], [19, 11, 0], [20, 14, 0], [21, 15, 0]]</t>
-  </si>
-  <si>
-    <t>16519188</t>
-  </si>
-  <si>
-    <t>16519189</t>
-  </si>
-  <si>
-    <t>16519190</t>
-  </si>
-  <si>
-    <t>16519191</t>
-  </si>
-  <si>
-    <t>16519192</t>
-  </si>
-  <si>
-    <t>[[0, 2, 2], [1, 9, 0], [2, 3, 0], [3, 13, 0], [4, 4, 0], [5, 11, 0], [6, 12, 0], [7, 14, 0], [8, 15, 0], [9, 1, 0], [10, 5, 0], [11, 10, 0], [12, 6, 3], [13, 17, 1], [14, 0, 3], [15, 19, 0], [16, 18, 0], [17, 21, 0], [18, 20, 0], [19, 23, 0], [20, 22, 0], [21, 7, 3], [22, 8, 3], [23, 24, 0], [24, 26, 0], [25, 25, 0], [26, 28, 0], [27, 27, 0], [28, 30, 0], [29, 29, 0], [30, 16, 3], [31, 31, 0]]</t>
-  </si>
-  <si>
-    <t>16519193</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 10, 3], [2, 2, 0], [3, 5, 1], [4, 1, 1], [5, 7, 1], [6, 6, 1], [7, 4, 2], [8, 3, 1], [9, 18, 4], [10, 19, 5], [11, 20, 3], [12, 21, 5], [13, 8, 0], [14, 9, 0], [15, 22, 0], [16, 11, 0], [17, 12, 0], [18, 13, 0], [19, 14, 0], [20, 15, 0], [21, 16, 0], [22, 17, 0]]</t>
-  </si>
-  <si>
-    <t>16519194</t>
-  </si>
-  <si>
-    <t>[[0, 16, 1], [1, 15, 0], [2, 14, 0], [3, 7, 1], [4, 19, 0], [5, 11, 0], [6, 12, 0], [7, 10, 0], [8, 13, 0], [9, 9, 0], [10, 18, 0], [11, 17, 1], [12, 6, 0], [13, 20, 0], [14, 0, 3], [15, 1, 3], [16, 2, 4], [17, 3, 4], [18, 4, 5], [19, 5, 4], [20, 21, 0], [21, 24, 0], [22, 8, 3], [23, 25, 0], [24, 26, 0], [25, 23, 0], [26, 22, 0], [27, 34, 0], [28, 33, 0], [29, 32, 0], [30, 31, 0], [31, 30, 0], [32, 29, 0], [33, 28, 0], [34, 27, 0]]</t>
-  </si>
-  <si>
-    <t>16519195</t>
-  </si>
-  <si>
-    <t>[[0, 12, 3], [1, 1, 0], [2, 0, 1], [3, 4, 1], [4, 10, 0], [5, 9, 1], [6, 8, 1], [7, 7, 1], [8, 6, 1], [9, 3, 1], [10, 2, 1], [11, 5, 0], [12, 24, 5], [13, 11, 2], [14, 25, 0], [15, 13, 0], [16, 14, 0], [17, 15, 0], [18, 16, 0], [19, 17, 0], [20, 18, 0], [21, 19, 0], [22, 20, 0], [23, 21, 0], [24, 22, 0], [25, 23, 0]]</t>
-  </si>
-  <si>
-    <t>16519196</t>
-  </si>
-  <si>
-    <t>16519197</t>
-  </si>
-  <si>
-    <t>16519198</t>
-  </si>
-  <si>
-    <t>[[0, 7, 3], [1, 8, 3], [2, 0, 1], [3, 2, 1], [4, 3, 1], [5, 4, 1], [6, 5, 1], [7, 14, 5], [8, 15, 4], [9, 16, 4], [10, 1, 2], [11, 18, 3], [12, 19, 5], [13, 6, 1], [14, 20, 0], [15, 17, 0], [16, 9, 0], [17, 10, 0], [18, 11, 0], [19, 12, 0], [20, 13, 0]]</t>
-  </si>
-  <si>
-    <t>16519199</t>
-  </si>
-  <si>
-    <t>16519200</t>
-  </si>
-  <si>
-    <t>16519201</t>
-  </si>
-  <si>
-    <t>16519202</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 15, 0], [2, 13, 1], [3, 14, 1], [4, 4, 0], [5, 2, 0], [6, 6, 1], [7, 9, 0], [8, 7, 0], [9, 5, 0], [10, 12, 0], [11, 11, 0], [12, 16, 2], [13, 17, 1], [14, 18, 0], [15, 1, 3], [16, 19, 0], [17, 3, 3], [18, 20, 0], [19, 23, 0], [20, 22, 0], [21, 21, 0], [22, 8, 3], [23, 27, 0], [24, 10, 3], [25, 25, 0], [26, 24, 0], [27, 31, 0], [28, 30, 0], [29, 29, 0], [30, 28, 0], [31, 26, 0]]</t>
-  </si>
-  <si>
-    <t>16519203</t>
-  </si>
-  <si>
-    <t>[[0, 11, 3], [1, 9, 0], [2, 13, 4], [3, 8, 1], [4, 6, 0], [5, 5, 1], [6, 4, 0], [7, 3, 0], [8, 0, 1], [9, 1, 0], [10, 2, 0], [11, 22, 3], [12, 7, 1], [13, 10, 1], [14, 23, 0], [15, 12, 0], [16, 24, 0], [17, 14, 0], [18, 15, 0], [19, 16, 0], [20, 17, 0], [21, 18, 0], [22, 19, 0], [23, 20, 0], [24, 21, 0]]</t>
-  </si>
-  <si>
-    <t>16519204</t>
-  </si>
-  <si>
-    <t>[[0, 9, 1], [1, 11, 2], [2, 14, 0], [3, 5, 2], [4, 4, 0], [5, 6, 0], [6, 7, 0], [7, 3, 0], [8, 8, 0], [9, 13, 2], [10, 12, 1], [11, 16, 1], [12, 10, 3], [13, 18, 2], [14, 0, 3], [15, 1, 4], [16, 2, 3], [17, 20, 0], [18, 19, 0], [19, 24, 0], [20, 23, 0], [21, 22, 0], [22, 21, 0], [23, 28, 0], [24, 27, 0], [25, 26, 0], [26, 25, 0], [27, 32, 0], [28, 31, 0], [29, 15, 4], [30, 29, 0], [31, 17, 3], [32, 30, 0]]</t>
-  </si>
-  <si>
-    <t>18018006</t>
-  </si>
-  <si>
-    <t>18018032</t>
-  </si>
-  <si>
-    <t>18318025</t>
-  </si>
-  <si>
-    <t>[[0, 0, 0], [1, 12, 0], [2, 11, 1], [3, 5, 2], [4, 6, 0], [5, 8, 0], [6, 10, 0], [7, 3, 0], [8, 9, 1], [9, 1, 0], [10, 2, 1], [11, 7, 0], [12, 4, 2], [13, 13, 1], [14, 14, 0], [15, 15, 0], [16, 16, 0], [17, 17, 0], [18, 18, 0], [19, 19, 0], [20, 20, 0], [21, 21, 0], [22, 22, 0], [23, 23, 0], [24, 24, 0], [25, 25, 0], [26, 26, 0], [27, 27, 0]]</t>
   </si>
 </sst>
 </file>
@@ -848,92 +845,92 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51.78571428571428</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>53.57142857142857</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="C3">
         <v>96</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>59.32203389830508</v>
+        <v>81.25</v>
       </c>
       <c r="C4">
         <v>96</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>96</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -942,15 +939,15 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>94.44444444444444</v>
@@ -962,63 +959,63 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C8">
         <v>96</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C9">
         <v>96</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C10">
         <v>96</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>90.66666666666666</v>
@@ -1030,97 +1027,97 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>96</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>78.46153846153847</v>
+        <v>87.03703703703704</v>
       </c>
       <c r="C13">
         <v>96</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>61.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="C14">
         <v>96</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>31.37254901960784</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>61.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="C16">
         <v>96</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>84.50704225352112</v>
@@ -1132,46 +1129,46 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>61.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="C18">
         <v>96</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>81.53846153846153</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="C19">
         <v>96</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1180,15 +1177,15 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>83.5820895522388</v>
@@ -1200,29 +1197,29 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>64.40677966101696</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>96</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1231,15 +1228,15 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>88.31168831168831</v>
@@ -1251,46 +1248,46 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>44.44444444444444</v>
+        <v>74.41860465116279</v>
       </c>
       <c r="C25">
         <v>96</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>64.40677966101696</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>96</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1299,66 +1296,66 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C28">
         <v>96</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>64.40677966101696</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>96</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30">
-        <v>64.40677966101696</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>96</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>46.29629629629629</v>
@@ -1370,29 +1367,29 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>46.29629629629629</v>
+        <v>58.13953488372092</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>88.57142857142857</v>
@@ -1404,29 +1401,29 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>96</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1435,66 +1432,66 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>46.29629629629629</v>
+        <v>58.13953488372092</v>
       </c>
       <c r="C36">
         <v>96</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>76.92307692307692</v>
+        <v>81.4814814814815</v>
       </c>
       <c r="C37">
         <v>96</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>51.78571428571428</v>
+        <v>73.33333333333334</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1503,15 +1500,15 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>59.13978494623655</v>
@@ -1523,46 +1520,46 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C41">
         <v>96</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C42">
         <v>92</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>56.56565656565656</v>
@@ -1574,46 +1571,46 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B44">
-        <v>73.84615384615385</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="C44">
         <v>96</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B45">
-        <v>63.33333333333333</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>81.08108108108108</v>
@@ -1625,12 +1622,12 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1639,66 +1636,66 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>51.78571428571428</v>
+        <v>73.33333333333334</v>
       </c>
       <c r="C48">
         <v>92</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49">
-        <v>66.66666666666667</v>
+        <v>85.71428571428572</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50">
-        <v>78.46153846153847</v>
+        <v>87.03703703703704</v>
       </c>
       <c r="C50">
         <v>96</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>84.50704225352112</v>
@@ -1710,29 +1707,29 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B52">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C52">
         <v>96</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B53">
         <v>90.41095890410959</v>
@@ -1744,46 +1741,46 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C54">
         <v>96</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55">
-        <v>78.46153846153847</v>
+        <v>87.03703703703704</v>
       </c>
       <c r="C55">
         <v>96</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>81.33333333333333</v>
@@ -1795,63 +1792,63 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B57">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C57">
         <v>96</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B58">
-        <v>66.66666666666667</v>
+        <v>85.71428571428572</v>
       </c>
       <c r="C58">
         <v>96</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B59">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C59">
         <v>96</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B60">
         <v>83.11688311688312</v>
@@ -1863,29 +1860,29 @@
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B61">
-        <v>69.84126984126983</v>
+        <v>88.46153846153845</v>
       </c>
       <c r="C61">
         <v>96</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>86.8421052631579</v>
@@ -1897,12 +1894,12 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>81.33333333333333</v>
@@ -1914,63 +1911,57 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C64">
         <v>96</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B65">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <v>96</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B66">
-        <v>-54.05405405405406</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
-      </c>
-      <c r="D66">
-        <v>57</v>
-      </c>
-      <c r="E66" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>84.05797101449275</v>
@@ -1982,46 +1973,46 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B68">
-        <v>46.29629629629629</v>
+        <v>58.13953488372092</v>
       </c>
       <c r="C68">
         <v>96</v>
       </c>
       <c r="D68">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B69">
-        <v>66.66666666666667</v>
+        <v>85.71428571428572</v>
       </c>
       <c r="C69">
         <v>96</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B70">
         <v>81.57894736842105</v>
@@ -2033,29 +2024,29 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B71">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C71">
         <v>96</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B72">
         <v>86.8421052631579</v>
@@ -2067,46 +2058,46 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B73">
-        <v>76.92307692307692</v>
+        <v>81.4814814814815</v>
       </c>
       <c r="C73">
         <v>96</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B74">
-        <v>78.46153846153847</v>
+        <v>87.03703703703704</v>
       </c>
       <c r="C74">
         <v>94</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B75">
         <v>84.72222222222221</v>
@@ -2118,12 +2109,12 @@
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B76">
         <v>61.29032258064516</v>
@@ -2135,29 +2126,29 @@
         <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B77">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <v>96</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B78">
         <v>86.95652173913044</v>
@@ -2169,80 +2160,80 @@
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B79">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C79">
         <v>96</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B80">
-        <v>78.46153846153847</v>
+        <v>87.03703703703704</v>
       </c>
       <c r="C80">
         <v>96</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B81">
-        <v>49.09090909090909</v>
+        <v>70.45454545454545</v>
       </c>
       <c r="C81">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B82">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C82">
         <v>96</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>81.33333333333333</v>
@@ -2254,46 +2245,46 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>46.29629629629629</v>
+        <v>58.13953488372092</v>
       </c>
       <c r="C84">
         <v>96</v>
       </c>
       <c r="D84">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B85">
-        <v>65.57377049180329</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>96</v>
       </c>
       <c r="D85">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B86">
         <v>78.31325301204819</v>
@@ -2305,29 +2296,29 @@
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B87">
-        <v>51.78571428571428</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="C87">
         <v>96</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B88">
         <v>67.77777777777779</v>
@@ -2339,29 +2330,29 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B89">
-        <v>71.875</v>
+        <v>90.56603773584906</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2370,15 +2361,15 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2387,66 +2378,66 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B92">
-        <v>31.37254901960784</v>
+        <v>60</v>
       </c>
       <c r="C92">
         <v>94</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B93">
-        <v>66.66666666666667</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="C93">
         <v>96</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B94">
-        <v>81.53846153846153</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="C94">
         <v>96</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>86.8421052631579</v>
@@ -2458,12 +2449,12 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B96">
         <v>77.21518987341773</v>
@@ -2475,29 +2466,29 @@
         <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B97">
-        <v>76.5625</v>
+        <v>81.13207547169812</v>
       </c>
       <c r="C97">
         <v>96</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B98">
         <v>65.55555555555556</v>
@@ -2509,12 +2500,12 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2523,15 +2514,15 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2540,15 +2531,15 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B101">
         <v>88.57142857142857</v>
@@ -2560,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
